--- a/exportorv2/sample/Exp.xlsx
+++ b/exportorv2/sample/Exp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Exp" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+OutputTag: [".cs", ".bin"]当 tag与对应的导出器匹配时, 导出, 不填时都导出, 二进制与源码请保持一致的OutputTag</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
@@ -67,10 +101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TableName: "Exp" Package: "gamedef" </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,6 +110,10 @@
   </si>
   <si>
     <t>MakeIndex:true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Exp" Package: "gamedef"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +162,19 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -472,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -493,7 +540,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -501,7 +548,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -561,11 +608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,7 +627,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -597,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -607,5 +654,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>